--- a/PyMaster/deck.xlsx
+++ b/PyMaster/deck.xlsx
@@ -344,7 +344,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AF11"/>
+  <dimension ref="A1:AF13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A16" sqref="A16:XFD16"/>
@@ -1537,6 +1537,210 @@
         <v>10</v>
       </c>
     </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>guerrier</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Guerrier dmg</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>34</v>
+      </c>
+      <c r="D12" t="n">
+        <v>34</v>
+      </c>
+      <c r="E12" t="n">
+        <v>33</v>
+      </c>
+      <c r="F12" t="n">
+        <v>33</v>
+      </c>
+      <c r="G12" t="n">
+        <v>32</v>
+      </c>
+      <c r="H12" t="n">
+        <v>32</v>
+      </c>
+      <c r="I12" t="n">
+        <v>31</v>
+      </c>
+      <c r="J12" t="n">
+        <v>31</v>
+      </c>
+      <c r="K12" t="n">
+        <v>30</v>
+      </c>
+      <c r="L12" t="n">
+        <v>30</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>3</v>
+      </c>
+      <c r="O12" t="n">
+        <v>3</v>
+      </c>
+      <c r="P12" t="n">
+        <v>7</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>7</v>
+      </c>
+      <c r="R12" t="n">
+        <v>8</v>
+      </c>
+      <c r="S12" t="n">
+        <v>8</v>
+      </c>
+      <c r="T12" t="n">
+        <v>10</v>
+      </c>
+      <c r="U12" t="n">
+        <v>11</v>
+      </c>
+      <c r="V12" t="n">
+        <v>11</v>
+      </c>
+      <c r="W12" t="n">
+        <v>12</v>
+      </c>
+      <c r="X12" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>13</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>13</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>16</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>16</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>17</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>17</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>18</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>pretre</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Pretre heal</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>2</v>
+      </c>
+      <c r="D13" t="n">
+        <v>2</v>
+      </c>
+      <c r="E13" t="n">
+        <v>3</v>
+      </c>
+      <c r="F13" t="n">
+        <v>3</v>
+      </c>
+      <c r="G13" t="n">
+        <v>4</v>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+      <c r="I13" t="n">
+        <v>8</v>
+      </c>
+      <c r="J13" t="n">
+        <v>8</v>
+      </c>
+      <c r="K13" t="n">
+        <v>45</v>
+      </c>
+      <c r="L13" t="n">
+        <v>45</v>
+      </c>
+      <c r="M13" t="n">
+        <v>46</v>
+      </c>
+      <c r="N13" t="n">
+        <v>46</v>
+      </c>
+      <c r="O13" t="n">
+        <v>47</v>
+      </c>
+      <c r="P13" t="n">
+        <v>47</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>48</v>
+      </c>
+      <c r="R13" t="n">
+        <v>48</v>
+      </c>
+      <c r="S13" t="n">
+        <v>49</v>
+      </c>
+      <c r="T13" t="n">
+        <v>49</v>
+      </c>
+      <c r="U13" t="n">
+        <v>24</v>
+      </c>
+      <c r="V13" t="n">
+        <v>22</v>
+      </c>
+      <c r="W13" t="n">
+        <v>22</v>
+      </c>
+      <c r="X13" t="n">
+        <v>21</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>20</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>20</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>16</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>14</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>14</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>12</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>12</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
